--- a/варианты 2024/шастинибах/в3/18.xlsx
+++ b/варианты 2024/шастинибах/в3/18.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\варианты 2024\шастинибах\в3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3E9FAB-0F1B-4A07-9AE5-D15AC9072CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{B484D2F7-A277-447A-BB0A-13D7C3D9BB85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -45,7 +39,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +61,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -189,6 +195,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -249,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -301,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -495,18 +503,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D6D66E-D291-46B1-AEB9-B615F70783C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,48 +561,48 @@
         <v>1076</v>
       </c>
       <c r="O1" s="7">
-        <f>MIN(O2,N1,A2+N2)+B1</f>
-        <v>898</v>
+        <f>MAX(O2,N1,N2)+B1</f>
+        <v>1202</v>
       </c>
       <c r="P1" s="7">
-        <f>MIN(P2,O1,B2+O2)+C1</f>
-        <v>905</v>
+        <f>MAX(P2,O1,O2)+C1</f>
+        <v>1453</v>
       </c>
       <c r="Q1" s="7">
-        <f>MIN(Q2,P1,C2+P2)+D1</f>
-        <v>870</v>
+        <f>MAX(Q2,P1,P2)+D1</f>
+        <v>1519</v>
       </c>
       <c r="R1" s="7">
-        <f>MIN(R2,Q1,D2+Q2)+E1</f>
-        <v>947</v>
+        <f>MAX(R2,Q1,Q2)+E1</f>
+        <v>1643</v>
       </c>
       <c r="S1" s="7">
-        <f>MIN(S2,R1,E2+R2)+F1</f>
-        <v>967</v>
+        <f>MAX(S2,R1,R2)+F1</f>
+        <v>1692</v>
       </c>
       <c r="T1" s="7">
-        <f>MIN(T2,S1,F2+S2)+G1</f>
-        <v>1014</v>
+        <f>MAX(T2,S1,S2)+G1</f>
+        <v>1796</v>
       </c>
       <c r="U1" s="7">
-        <f>MIN(U2,T1,G2+T2)+H1</f>
-        <v>1075</v>
+        <f>MAX(U2,T1,T2)+H1</f>
+        <v>1890</v>
       </c>
       <c r="V1" s="7">
-        <f>MIN(V2,U1,H2+U2)+I1</f>
-        <v>1180</v>
+        <f>MAX(V2,U1,U2)+I1</f>
+        <v>1995</v>
       </c>
       <c r="W1" s="7">
-        <f>MIN(W2,V1,I2+V2)+J1</f>
-        <v>338</v>
+        <f>MAX(W2,V1,V2)+J1</f>
+        <v>2025</v>
       </c>
       <c r="X1" s="7">
-        <f>MIN(X2,W1,J2+W2)+K1</f>
-        <v>391</v>
+        <f>MAX(X2,W1,W2)+K1</f>
+        <v>2079</v>
       </c>
       <c r="Y1" s="11">
-        <f>MIN(Y2,X1,K2+X2)+L1</f>
-        <v>464</v>
+        <f>MAX(Y2,X1,X2)+L1</f>
+        <v>2152</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -639,48 +647,48 @@
         <v>1022</v>
       </c>
       <c r="O2">
-        <f>MIN(O3,N2,A3+N3)+B2</f>
-        <v>868</v>
+        <f>MAX(O3,N2,N3)+B2</f>
+        <v>1172</v>
       </c>
       <c r="P2">
-        <f>MIN(P3,O2,B3+O3)+C2</f>
-        <v>832</v>
+        <f>MAX(P3,O2,O3)+C2</f>
+        <v>1380</v>
       </c>
       <c r="Q2">
-        <f>MIN(Q3,P2,C3+P3)+D2</f>
-        <v>875</v>
+        <f>MAX(Q3,P2,P3)+D2</f>
+        <v>1503</v>
       </c>
       <c r="R2">
-        <f>MIN(R3,Q2,D3+Q3)+E2</f>
-        <v>917</v>
+        <f>MAX(R3,Q2,Q3)+E2</f>
+        <v>1566</v>
       </c>
       <c r="S2">
-        <f>MIN(S3,R2,E3+R3)+F2</f>
-        <v>978</v>
+        <f>MAX(S3,R2,R3)+F2</f>
+        <v>1672</v>
       </c>
       <c r="T2">
-        <f>MIN(T3,S2,F3+S3)+G2</f>
-        <v>971</v>
+        <f>MAX(T3,S2,S3)+G2</f>
+        <v>1749</v>
       </c>
       <c r="U2">
-        <f>MIN(U3,T2,G3+T3)+H2</f>
-        <v>1051</v>
+        <f>MAX(U3,T2,T3)+H2</f>
+        <v>1829</v>
       </c>
       <c r="V2">
-        <f>MIN(V3,U2,H3+U3)+I2</f>
-        <v>1077</v>
+        <f>MAX(V3,U2,U3)+I2</f>
+        <v>1881</v>
       </c>
       <c r="W2">
-        <f>MIN(W3,V2,I3+V3)+J2</f>
-        <v>308</v>
+        <f>MAX(W3,V2,V3)+J2</f>
+        <v>1910</v>
       </c>
       <c r="X2">
-        <f>MIN(X3,W2,J3+W3)+K2</f>
-        <v>369</v>
+        <f>MAX(X3,W2,W3)+K2</f>
+        <v>1971</v>
       </c>
       <c r="Y2" s="2">
-        <f>MIN(Y3,X2,K3+X3)+L2</f>
-        <v>406</v>
+        <f>MAX(Y3,X2,X3)+L2</f>
+        <v>2008</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -725,48 +733,48 @@
         <v>946</v>
       </c>
       <c r="O3">
-        <f>MIN(O4,N3,A4+N4)+B3</f>
-        <v>782</v>
+        <f>MAX(O4,N3,N4)+B3</f>
+        <v>1086</v>
       </c>
       <c r="P3">
-        <f>MIN(P4,O3,B4+O4)+C3</f>
-        <v>810</v>
+        <f>MAX(P4,O3,O4)+C3</f>
+        <v>1358</v>
       </c>
       <c r="Q3">
-        <f>MIN(Q4,P3,C4+P4)+D3</f>
-        <v>882</v>
+        <f>MAX(Q4,P3,P4)+D3</f>
+        <v>1460</v>
       </c>
       <c r="R3">
-        <f>MIN(R4,Q3,D4+Q4)+E3</f>
-        <v>888</v>
+        <f>MAX(R4,Q3,Q4)+E3</f>
+        <v>1524</v>
       </c>
       <c r="S3">
-        <f>MIN(S4,R3,E4+R4)+F3</f>
-        <v>872</v>
+        <f>MAX(S4,R3,R4)+F3</f>
+        <v>1546</v>
       </c>
       <c r="T3">
-        <f>MIN(T4,S3,F4+S4)+G3</f>
-        <v>987</v>
-      </c>
-      <c r="U3" s="13">
-        <f t="shared" ref="U3:V3" si="1">T3+H3</f>
-        <v>1006</v>
+        <f>MAX(T4,S3,S4)+G3</f>
+        <v>1661</v>
+      </c>
+      <c r="U3" s="16">
+        <f>MAX(T3,T4)+H3</f>
+        <v>1680</v>
       </c>
       <c r="V3" s="13">
-        <f t="shared" si="1"/>
-        <v>1031</v>
+        <f>U3+I3</f>
+        <v>1705</v>
       </c>
       <c r="W3">
-        <f>MIN(W4,V3,I4+V4)+J3</f>
-        <v>279</v>
+        <f>MAX(W4,V3,V4)+J3</f>
+        <v>1777</v>
       </c>
       <c r="X3">
-        <f>MIN(X4,W3,J4+W4)+K3</f>
-        <v>365</v>
+        <f>MAX(X4,W3,W4)+K3</f>
+        <v>1863</v>
       </c>
       <c r="Y3" s="2">
-        <f>MIN(Y4,X3,K4+X4)+L3</f>
-        <v>470</v>
+        <f>MAX(Y4,X3,X4)+L3</f>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -811,40 +819,40 @@
         <v>834</v>
       </c>
       <c r="O4">
-        <f>MIN(O5,N4,A5+N5)+B4</f>
-        <v>748</v>
+        <f>MAX(O5,N4,N5)+B4</f>
+        <v>1052</v>
       </c>
       <c r="P4">
-        <f>MIN(P5,O4,B5+O5)+C4</f>
-        <v>832</v>
+        <f>MAX(P5,O4,O5)+C4</f>
+        <v>1322</v>
       </c>
       <c r="Q4">
-        <f>MIN(Q5,P4,C5+P5)+D4</f>
-        <v>898</v>
+        <f>MAX(Q5,P4,P5)+D4</f>
+        <v>1388</v>
       </c>
       <c r="R4">
-        <f>MIN(R5,Q4,D5+Q5)+E4</f>
-        <v>825</v>
+        <f>MAX(R5,Q4,Q5)+E4</f>
+        <v>1461</v>
       </c>
       <c r="S4" s="2">
-        <f>MIN(S5,R4,E5+R5)+F4</f>
-        <v>850</v>
+        <f>MAX(S5,R4,R5)+F4</f>
+        <v>1493</v>
       </c>
       <c r="V4" s="10">
-        <f>MIN(V5,U4,H5+U5)+I4</f>
-        <v>126</v>
+        <f>MAX(V5,U4,U5)+I4</f>
+        <v>1436</v>
       </c>
       <c r="W4" s="15">
-        <f t="shared" ref="W4:W13" si="2">W5+J4</f>
-        <v>1096</v>
+        <f t="shared" ref="W4:W12" si="1">W5+J4</f>
+        <v>1528</v>
       </c>
       <c r="X4">
-        <f>MIN(X5,W4,J5+W5)+K4</f>
-        <v>901</v>
+        <f>MAX(X5,W4,W5)+K4</f>
+        <v>1666</v>
       </c>
       <c r="Y4" s="2">
-        <f>MIN(Y5,X4,K5+X5)+L4</f>
-        <v>865</v>
+        <f>MAX(Y5,X4,X5)+L4</f>
+        <v>1691</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -889,40 +897,40 @@
         <v>767</v>
       </c>
       <c r="O5">
-        <f>MIN(O6,N5,A6+N6)+B5</f>
-        <v>722</v>
+        <f>MAX(O6,N5,N6)+B5</f>
+        <v>1026</v>
       </c>
       <c r="P5">
-        <f>MIN(P6,O5,B6+O6)+C5</f>
-        <v>803</v>
-      </c>
-      <c r="Q5" s="13">
-        <f>P5+D5</f>
-        <v>886</v>
+        <f>MAX(P6,O5,O6)+C5</f>
+        <v>1234</v>
+      </c>
+      <c r="Q5" s="16">
+        <f>MAX(P5,P6)+D5</f>
+        <v>1317</v>
       </c>
       <c r="R5">
-        <f>MIN(R6,Q5,D6+Q6)+E5</f>
-        <v>769</v>
+        <f>MAX(R6,Q5,Q6)+E5</f>
+        <v>1405</v>
       </c>
       <c r="S5" s="2">
-        <f>MIN(S6,R5,E6+R6)+F5</f>
-        <v>818</v>
+        <f>MAX(S6,R5,R6)+F5</f>
+        <v>1454</v>
       </c>
       <c r="V5" s="2">
-        <f>MIN(V6,U5,H6+U6)+I5</f>
-        <v>127</v>
+        <f>MAX(V6,U5,U6)+I5</f>
+        <v>1355</v>
       </c>
       <c r="W5" s="15">
-        <f t="shared" si="2"/>
-        <v>1033</v>
+        <f t="shared" si="1"/>
+        <v>1465</v>
       </c>
       <c r="X5">
-        <f>MIN(X6,W5,J6+W6)+K5</f>
-        <v>866</v>
+        <f>MAX(X6,W5,W6)+K5</f>
+        <v>1631</v>
       </c>
       <c r="Y5" s="2">
-        <f>MIN(Y6,X5,K6+X6)+L5</f>
-        <v>840</v>
+        <f>MAX(Y6,X5,X6)+L5</f>
+        <v>1663</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -967,40 +975,40 @@
         <v>696</v>
       </c>
       <c r="O6">
-        <f>MIN(O7,N6,A7+N7)+B6</f>
-        <v>700</v>
+        <f>MAX(O7,N6,N7)+B6</f>
+        <v>1004</v>
       </c>
       <c r="P6">
-        <f>MIN(P7,O6,B7+O7)+C6</f>
-        <v>790</v>
+        <f>MAX(P7,O6,O7)+C6</f>
+        <v>1153</v>
       </c>
       <c r="Q6" s="10">
-        <f>MIN(Q7,P6,C7+P7)+D6</f>
-        <v>652</v>
+        <f>MAX(Q7,P6,P7)+D6</f>
+        <v>1182</v>
       </c>
       <c r="R6" s="15">
-        <f t="shared" ref="R6:R12" si="3">R7+E6</f>
+        <f t="shared" ref="R6:R11" si="2">R7+E6</f>
         <v>934</v>
       </c>
       <c r="S6" s="2">
-        <f>MIN(S7,R6,E7+R7)+F6</f>
-        <v>881</v>
+        <f>MAX(S7,R6,R7)+F6</f>
+        <v>1099</v>
       </c>
       <c r="V6" s="2">
-        <f>MIN(V7,U6,H7+U7)+I6</f>
-        <v>175</v>
+        <f>MAX(V7,U6,U7)+I6</f>
+        <v>1298</v>
       </c>
       <c r="W6" s="15">
-        <f t="shared" si="2"/>
-        <v>945</v>
+        <f t="shared" si="1"/>
+        <v>1377</v>
       </c>
       <c r="X6">
-        <f>MIN(X7,W6,J7+W7)+K6</f>
-        <v>817</v>
+        <f>MAX(X7,W6,W7)+K6</f>
+        <v>1582</v>
       </c>
       <c r="Y6" s="2">
-        <f>MIN(Y7,X6,K7+X7)+L6</f>
-        <v>824</v>
+        <f>MAX(Y7,X6,X7)+L6</f>
+        <v>1647</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1045,40 +1053,40 @@
         <v>627</v>
       </c>
       <c r="O7">
-        <f>MIN(O8,N7,A8+N8)+B7</f>
-        <v>738</v>
+        <f>MAX(O8,N7,N8)+B7</f>
+        <v>976</v>
       </c>
       <c r="P7">
-        <f>MIN(P8,O7,B8+O8)+C7</f>
-        <v>684</v>
+        <f>MAX(P8,O7,O8)+C7</f>
+        <v>1047</v>
       </c>
       <c r="Q7" s="2">
-        <f>MIN(Q8,P7,C8+P8)+D7</f>
-        <v>623</v>
+        <f>MAX(Q8,P7,P8)+D7</f>
+        <v>1100</v>
       </c>
       <c r="R7" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>856</v>
       </c>
       <c r="S7" s="2">
-        <f>MIN(S8,R7,E8+R8)+F7</f>
-        <v>769</v>
+        <f>MAX(S8,R7,R8)+F7</f>
+        <v>987</v>
       </c>
       <c r="V7" s="2">
-        <f>MIN(V8,U7,H8+U8)+I7</f>
-        <v>156</v>
+        <f>MAX(V8,U7,U8)+I7</f>
+        <v>1215</v>
       </c>
       <c r="W7" s="15">
-        <f t="shared" si="2"/>
-        <v>844</v>
+        <f t="shared" si="1"/>
+        <v>1276</v>
       </c>
       <c r="X7">
-        <f>MIN(X8,W7,J8+W8)+K7</f>
-        <v>756</v>
+        <f>MAX(X8,W7,W8)+K7</f>
+        <v>1521</v>
       </c>
       <c r="Y7" s="2">
-        <f>MIN(Y8,X7,K8+X8)+L7</f>
-        <v>759</v>
+        <f>MAX(Y8,X7,X8)+L7</f>
+        <v>1559</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1123,40 +1131,40 @@
         <v>582</v>
       </c>
       <c r="O8">
-        <f>MIN(O9,N8,A9+N9)+B8</f>
-        <v>658</v>
+        <f>MAX(O9,N8,N9)+B8</f>
+        <v>865</v>
       </c>
       <c r="P8">
-        <f>MIN(P9,O8,B9+O9)+C8</f>
-        <v>613</v>
+        <f>MAX(P9,O8,O9)+C8</f>
+        <v>916</v>
       </c>
       <c r="Q8" s="2">
-        <f>MIN(Q9,P8,C9+P9)+D8</f>
-        <v>570</v>
+        <f>MAX(Q9,P8,P9)+D8</f>
+        <v>949</v>
       </c>
       <c r="R8" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>813</v>
       </c>
       <c r="S8" s="2">
-        <f>MIN(S9,R8,E9+R9)+F8</f>
-        <v>720</v>
+        <f>MAX(S9,R8,R9)+F8</f>
+        <v>938</v>
       </c>
       <c r="V8" s="2">
-        <f>MIN(V9,U8,H9+U9)+I8</f>
-        <v>178</v>
+        <f>MAX(V9,U8,U9)+I8</f>
+        <v>1121</v>
       </c>
       <c r="W8" s="15">
-        <f t="shared" si="2"/>
-        <v>772</v>
+        <f t="shared" si="1"/>
+        <v>1204</v>
       </c>
       <c r="X8">
-        <f>MIN(X9,W8,J9+W9)+K8</f>
-        <v>715</v>
+        <f>MAX(X9,W8,W9)+K8</f>
+        <v>1480</v>
       </c>
       <c r="Y8" s="2">
-        <f>MIN(Y9,X8,K9+X9)+L8</f>
-        <v>721</v>
+        <f>MAX(Y9,X8,X9)+L8</f>
+        <v>1502</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1201,40 +1209,40 @@
         <v>512</v>
       </c>
       <c r="O9">
-        <f>MIN(O10,N9,A10+N10)+B9</f>
-        <v>606</v>
+        <f>MAX(O10,N9,N10)+B9</f>
+        <v>756</v>
       </c>
       <c r="P9">
-        <f>MIN(P10,O9,B10+O10)+C9</f>
-        <v>562</v>
+        <f>MAX(P10,O9,O10)+C9</f>
+        <v>812</v>
       </c>
       <c r="Q9" s="2">
-        <f>MIN(Q10,P9,C10+P10)+D9</f>
-        <v>537</v>
+        <f>MAX(Q10,P9,P10)+D9</f>
+        <v>854</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>714</v>
       </c>
       <c r="S9" s="2">
-        <f>MIN(S10,R9,E10+R10)+F9</f>
-        <v>659</v>
+        <f>MAX(S10,R9,R10)+F9</f>
+        <v>877</v>
       </c>
       <c r="V9" s="2">
-        <f>MIN(V10,U9,H10+U10)+I9</f>
-        <v>117</v>
+        <f>MAX(V10,U9,U10)+I9</f>
+        <v>1014</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="2"/>
-        <v>665</v>
+        <f t="shared" si="1"/>
+        <v>1097</v>
       </c>
       <c r="X9">
-        <f>MIN(X10,W9,J10+W10)+K9</f>
-        <v>679</v>
+        <f>MAX(X10,W9,W10)+K9</f>
+        <v>1444</v>
       </c>
       <c r="Y9" s="2">
-        <f>MIN(Y10,X9,K10+X10)+L9</f>
-        <v>699</v>
+        <f>MAX(Y10,X9,X10)+L9</f>
+        <v>1465</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1279,40 +1287,40 @@
         <v>475</v>
       </c>
       <c r="O10">
-        <f>MIN(O11,N10,A11+N11)+B10</f>
-        <v>507</v>
+        <f>MAX(O11,N10,N11)+B10</f>
+        <v>657</v>
       </c>
       <c r="P10">
-        <f>MIN(P11,O10,B11+O11)+C10</f>
-        <v>506</v>
+        <f>MAX(P11,O10,O11)+C10</f>
+        <v>755</v>
       </c>
       <c r="Q10" s="2">
-        <f>MIN(Q11,P10,C11+P11)+D10</f>
-        <v>495</v>
+        <f>MAX(Q11,P10,P11)+D10</f>
+        <v>808</v>
       </c>
       <c r="R10" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>641</v>
       </c>
       <c r="S10" s="2">
-        <f>MIN(S11,R10,E11+R11)+F10</f>
-        <v>624</v>
+        <f>MAX(S11,R10,R11)+F10</f>
+        <v>842</v>
       </c>
       <c r="V10" s="2">
-        <f>MIN(V11,U10,H11+U11)+I10</f>
-        <v>170</v>
+        <f>MAX(V11,U10,U11)+I10</f>
+        <v>976</v>
       </c>
       <c r="W10" s="15">
-        <f t="shared" si="2"/>
-        <v>571</v>
+        <f t="shared" si="1"/>
+        <v>1003</v>
       </c>
       <c r="X10">
-        <f>MIN(X11,W10,J11+W11)+K10</f>
-        <v>683</v>
+        <f>MAX(X11,W10,W11)+K10</f>
+        <v>1357</v>
       </c>
       <c r="Y10" s="2">
-        <f>MIN(Y11,X10,K11+X11)+L10</f>
-        <v>740</v>
+        <f>MAX(Y11,X10,X11)+L10</f>
+        <v>1445</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1357,40 +1365,40 @@
         <v>384</v>
       </c>
       <c r="O11">
-        <f>MIN(O12,N11,A12+N12)+B11</f>
-        <v>499</v>
+        <f>MAX(O12,N11,N12)+B11</f>
+        <v>569</v>
       </c>
       <c r="P11">
-        <f>MIN(P12,O11,B12+O12)+C11</f>
-        <v>408</v>
+        <f>MAX(P12,O11,O12)+C11</f>
+        <v>603</v>
       </c>
       <c r="Q11" s="2">
-        <f>MIN(Q12,P11,C12+P12)+D11</f>
-        <v>444</v>
+        <f>MAX(Q12,P11,P12)+D11</f>
+        <v>648</v>
       </c>
       <c r="R11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>576</v>
       </c>
       <c r="S11" s="2">
-        <f>MIN(S12,R11,E12+R12)+F11</f>
-        <v>580</v>
+        <f>MAX(S12,R11,R12)+F11</f>
+        <v>798</v>
       </c>
       <c r="V11" s="2">
-        <f>MIN(V12,U11,H12+U12)+I11</f>
-        <v>121</v>
+        <f>MAX(V12,U11,U12)+I11</f>
+        <v>891</v>
       </c>
       <c r="W11" s="15">
-        <f t="shared" si="2"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>982</v>
       </c>
       <c r="X11">
-        <f>MIN(X12,W11,J12+W12)+K11</f>
-        <v>616</v>
+        <f>MAX(X12,W11,W12)+K11</f>
+        <v>1245</v>
       </c>
       <c r="Y11" s="2">
-        <f>MIN(Y12,X11,K12+X12)+L11</f>
-        <v>652</v>
+        <f>MAX(Y12,X11,X12)+L11</f>
+        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1435,40 +1443,40 @@
         <v>349</v>
       </c>
       <c r="O12">
-        <f>MIN(O13,N12,A13+N13)+B12</f>
-        <v>410</v>
+        <f>MAX(O13,N12,N13)+B12</f>
+        <v>454</v>
       </c>
       <c r="P12">
-        <f>MIN(P13,O12,B13+O13)+C12</f>
-        <v>374</v>
+        <f>MAX(P13,O12,O13)+C12</f>
+        <v>479</v>
       </c>
       <c r="Q12" s="2">
-        <f>MIN(Q13,P12,C13+P13)+D12</f>
-        <v>416</v>
-      </c>
-      <c r="R12" s="15">
-        <f t="shared" si="3"/>
+        <f>MAX(Q13,P12,P13)+D12</f>
+        <v>521</v>
+      </c>
+      <c r="R12" s="17">
+        <f>MAX(R13,Q13)+E12</f>
         <v>542</v>
       </c>
       <c r="S12" s="2">
-        <f>MIN(S13,R12,E13+R13)+F12</f>
-        <v>507</v>
+        <f>MAX(S13,R12,R13)+F12</f>
+        <v>725</v>
       </c>
       <c r="V12" s="2">
-        <f>MIN(V13,U12,H13+U13)+I12</f>
-        <v>77</v>
+        <f>MAX(V13,U12,U13)+I12</f>
+        <v>847</v>
       </c>
       <c r="W12" s="15">
-        <f t="shared" si="2"/>
-        <v>522</v>
+        <f t="shared" si="1"/>
+        <v>954</v>
       </c>
       <c r="X12">
-        <f>MIN(X13,W12,J13+W13)+K12</f>
-        <v>556</v>
+        <f>MAX(X13,W12,W13)+K12</f>
+        <v>1179</v>
       </c>
       <c r="Y12" s="2">
-        <f>MIN(Y13,X12,K13+X13)+L12</f>
-        <v>646</v>
+        <f>MAX(Y13,X12,X13)+L12</f>
+        <v>1269</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1512,43 +1520,43 @@
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="O13" s="13">
-        <f t="shared" ref="O13:R13" si="4">N13+B13</f>
+      <c r="O13" s="16">
+        <f>MAX(N13,N14)+B13</f>
         <v>305</v>
       </c>
       <c r="P13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P13:R13" si="3">O13+C13</f>
         <v>379</v>
       </c>
       <c r="Q13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>418</v>
       </c>
       <c r="R13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>471</v>
       </c>
       <c r="S13" s="2">
-        <f>MIN(S14,R13,E14+R14)+F13</f>
-        <v>439</v>
+        <f>MAX(S14,R13,R14)+F13</f>
+        <v>657</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="4"/>
       <c r="V13" s="2">
-        <f>MIN(V14,U13,H14+U14)+I13</f>
-        <v>494</v>
-      </c>
-      <c r="W13" s="15">
-        <f t="shared" si="2"/>
-        <v>494</v>
+        <f>MAX(V14,U13,U14)+I13</f>
+        <v>824</v>
+      </c>
+      <c r="W13" s="17">
+        <f>MAX(W14,V14)+J13</f>
+        <v>926</v>
       </c>
       <c r="X13">
-        <f>MIN(X14,W13,J14+W14)+K13</f>
-        <v>601</v>
+        <f>MAX(X14,W13,W14)+K13</f>
+        <v>1133</v>
       </c>
       <c r="Y13" s="2">
-        <f>MIN(Y14,X13,K14+X14)+L13</f>
-        <v>623</v>
+        <f>MAX(Y14,X13,X14)+L13</f>
+        <v>1155</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -1593,48 +1601,48 @@
         <v>157</v>
       </c>
       <c r="O14">
-        <f>MIN(O15,N14,A15+N15)+B14</f>
-        <v>216</v>
+        <f>MAX(O15,N14,N15)+B14</f>
+        <v>273</v>
       </c>
       <c r="P14">
-        <f>MIN(P15,O14,B15+O15)+C14</f>
-        <v>229</v>
+        <f>MAX(P15,O14,O15)+C14</f>
+        <v>389</v>
       </c>
       <c r="Q14">
-        <f>MIN(Q15,P14,C15+P15)+D14</f>
-        <v>296</v>
+        <f>MAX(Q15,P14,P15)+D14</f>
+        <v>481</v>
       </c>
       <c r="R14">
-        <f>MIN(R15,Q14,D15+Q15)+E14</f>
-        <v>345</v>
+        <f>MAX(R15,Q14,Q15)+E14</f>
+        <v>538</v>
       </c>
       <c r="S14">
-        <f>MIN(S15,R14,E15+R15)+F14</f>
-        <v>360</v>
+        <f>MAX(S15,R14,R15)+F14</f>
+        <v>578</v>
       </c>
       <c r="T14">
-        <f>MIN(T15,S14,F15+S15)+G14</f>
-        <v>367</v>
+        <f>MAX(T15,S14,S15)+G14</f>
+        <v>606</v>
       </c>
       <c r="U14">
-        <f>MIN(U15,T14,G15+T15)+H14</f>
-        <v>392</v>
+        <f>MAX(U15,T14,T15)+H14</f>
+        <v>706</v>
       </c>
       <c r="V14">
-        <f>MIN(V15,U14,H15+U15)+I14</f>
-        <v>431</v>
+        <f>MAX(V15,U14,U15)+I14</f>
+        <v>756</v>
       </c>
       <c r="W14">
-        <f>MIN(W15,V14,I15+V15)+J14</f>
-        <v>478</v>
+        <f>MAX(W15,V14,V15)+J14</f>
+        <v>910</v>
       </c>
       <c r="X14">
-        <f>MIN(X15,W14,J15+W15)+K14</f>
-        <v>586</v>
+        <f>MAX(X15,W14,W15)+K14</f>
+        <v>1026</v>
       </c>
       <c r="Y14" s="2">
-        <f>MIN(Y15,X14,K15+X15)+L14</f>
-        <v>637</v>
+        <f>MAX(Y15,X14,X15)+L14</f>
+        <v>1077</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1679,48 +1687,48 @@
         <v>136</v>
       </c>
       <c r="O15">
-        <f>MIN(O16,N15,A16+N16)+B15</f>
-        <v>162</v>
+        <f>MAX(O16,N15,N16)+B15</f>
+        <v>214</v>
       </c>
       <c r="P15">
-        <f>MIN(P16,O15,B16+O16)+C15</f>
-        <v>229</v>
+        <f>MAX(P16,O15,O16)+C15</f>
+        <v>351</v>
       </c>
       <c r="Q15">
-        <f>MIN(Q16,P15,C16+P16)+D15</f>
-        <v>292</v>
+        <f>MAX(Q16,P15,P16)+D15</f>
+        <v>414</v>
       </c>
       <c r="R15">
-        <f>MIN(R16,Q15,D16+Q16)+E15</f>
-        <v>288</v>
+        <f>MAX(R16,Q15,Q16)+E15</f>
+        <v>456</v>
       </c>
       <c r="S15">
-        <f>MIN(S16,R15,E16+R16)+F15</f>
-        <v>320</v>
+        <f>MAX(S16,R15,R16)+F15</f>
+        <v>505</v>
       </c>
       <c r="T15">
-        <f>MIN(T16,S15,F16+S16)+G15</f>
-        <v>339</v>
+        <f>MAX(T16,S15,S16)+G15</f>
+        <v>524</v>
       </c>
       <c r="U15">
-        <f>MIN(U16,T15,G16+T16)+H15</f>
-        <v>439</v>
+        <f>MAX(U16,T15,T16)+H15</f>
+        <v>672</v>
       </c>
       <c r="V15">
-        <f>MIN(V16,U15,H16+U16)+I15</f>
-        <v>471</v>
+        <f>MAX(V16,U15,U16)+I15</f>
+        <v>717</v>
       </c>
       <c r="W15">
-        <f>MIN(W16,V15,I16+V16)+J15</f>
-        <v>581</v>
+        <f>MAX(W16,V15,V16)+J15</f>
+        <v>863</v>
       </c>
       <c r="X15">
-        <f>MIN(X16,W15,J16+W16)+K15</f>
-        <v>636</v>
+        <f>MAX(X16,W15,W16)+K15</f>
+        <v>918</v>
       </c>
       <c r="Y15" s="2">
-        <f>MIN(Y16,X15,K16+X16)+L15</f>
-        <v>706</v>
+        <f>MAX(Y16,X15,X16)+L15</f>
+        <v>988</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -1765,48 +1773,48 @@
         <v>96</v>
       </c>
       <c r="O16">
-        <f>MIN(O17,N16,A17+N17)+B16</f>
-        <v>155</v>
+        <f>MAX(O17,N16,N17)+B16</f>
+        <v>185</v>
       </c>
       <c r="P16">
-        <f>MIN(P17,O16,B17+O17)+C16</f>
-        <v>254</v>
+        <f>MAX(P17,O16,O17)+C16</f>
+        <v>284</v>
       </c>
       <c r="Q16">
-        <f>MIN(Q17,P16,C17+P17)+D16</f>
-        <v>238</v>
+        <f>MAX(Q17,P16,P17)+D16</f>
+        <v>329</v>
       </c>
       <c r="R16">
-        <f>MIN(R17,Q16,D17+Q17)+E16</f>
-        <v>246</v>
+        <f>MAX(R17,Q16,Q17)+E16</f>
+        <v>354</v>
       </c>
       <c r="S16">
-        <f>MIN(S17,R16,E17+R17)+F16</f>
-        <v>321</v>
+        <f>MAX(S17,R16,R17)+F16</f>
+        <v>429</v>
       </c>
       <c r="T16">
-        <f>MIN(T17,S16,F17+S17)+G16</f>
-        <v>363</v>
+        <f>MAX(T17,S16,S17)+G16</f>
+        <v>471</v>
       </c>
       <c r="U16">
-        <f>MIN(U17,T16,G17+T17)+H16</f>
-        <v>453</v>
+        <f>MAX(U17,T16,T17)+H16</f>
+        <v>572</v>
       </c>
       <c r="V16">
-        <f>MIN(V17,U16,H17+U17)+I16</f>
-        <v>566</v>
+        <f>MAX(V17,U16,U17)+I16</f>
+        <v>685</v>
       </c>
       <c r="W16">
-        <f>MIN(W17,V16,I17+V17)+J16</f>
-        <v>634</v>
+        <f>MAX(W17,V16,V17)+J16</f>
+        <v>753</v>
       </c>
       <c r="X16">
-        <f>MIN(X17,W16,J17+W17)+K16</f>
-        <v>685</v>
-      </c>
-      <c r="Y16" s="2">
-        <f>MIN(Y17,X16,K17+X17)+L16</f>
-        <v>730</v>
+        <f>MAX(X17,W16,W17)+K16</f>
+        <v>804</v>
+      </c>
+      <c r="Y16">
+        <f>MAX(Y17,X16,X17)+L16</f>
+        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1854,51 +1862,51 @@
         <v>126</v>
       </c>
       <c r="P17" s="13">
-        <f t="shared" ref="P17:Y17" si="5">O17+C17</f>
+        <f t="shared" ref="P17:Y17" si="4">O17+C17</f>
         <v>165</v>
       </c>
       <c r="Q17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>193</v>
       </c>
       <c r="R17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="S17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="T17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>367</v>
       </c>
       <c r="U17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>482</v>
       </c>
       <c r="V17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>565</v>
       </c>
       <c r="W17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>619</v>
       </c>
       <c r="X17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>708</v>
       </c>
       <c r="Y17" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y19">
-        <f>MIN(Q6,V4,Y1)</f>
-        <v>126</v>
+        <f>MAX(Q6,V4,Y1)</f>
+        <v>2152</v>
       </c>
     </row>
   </sheetData>
